--- a/rule_vs_trigger/ルール対トリガ.xlsx
+++ b/rule_vs_trigger/ルール対トリガ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB2F3F-6315-431F-8B21-C1A278AB898F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBD4413-C136-4C28-ABA8-3A0873D0429B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>psql -U postgres -p 5432 -d postgres -c "CREATE DATABASE sample TEMPLATE = template0 ENCODING = 'UTF8' LC_COLLATE = 'C' LC_CTYPE = 'C';"</t>
-  </si>
-  <si>
     <t>CREATE TABLE computer (</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>create index on software(hostname);</t>
-  </si>
-  <si>
-    <t>insert into computer SELECT md5(clock_timestamp()::text),md5(clock_timestamp()::text) FROM generate_series(1,5000);</t>
   </si>
   <si>
     <t>insert into software insert into software SELECT hostname,manufacturer FROM computer;</t>
@@ -348,6 +342,14 @@
   </si>
   <si>
     <t>まとめると、問い合わせ結果が大きく、プランナがうまく結合条件を設定できないような状況下でのみルールはトリガに比べて明らかに遅くなります。</t>
+  </si>
+  <si>
+    <t>insert into computer SELECT md5(clock_timestamp()::text),md5(clock_timestamp()::text) FROM generate_series(1,5000);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d postgres -c "CREATE DATABASE sample TEMPLATE = template0 ENCODING = 'UTF8' LC_COLLATE = 'C' LC_CTYPE = 'C';"</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -733,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -813,456 +815,456 @@
     </row>
     <row r="14" spans="2:2" s="5" customFormat="1">
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:2" s="5" customFormat="1">
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:2" s="5" customFormat="1"/>
     <row r="17" spans="2:2" s="5" customFormat="1">
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:2" s="5" customFormat="1">
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:2" s="5" customFormat="1">
       <c r="B19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:2" s="5" customFormat="1"/>
     <row r="21" spans="2:2" s="5" customFormat="1">
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="5" customFormat="1"/>
     <row r="23" spans="2:2" s="5" customFormat="1">
       <c r="B23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="5" customFormat="1">
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:2" s="5" customFormat="1">
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="5" customFormat="1">
       <c r="B27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:2" s="5" customFormat="1">
       <c r="B28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="2:2" s="5" customFormat="1"/>
     <row r="30" spans="2:2" s="5" customFormat="1">
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:2" s="5" customFormat="1">
       <c r="B31" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:2" s="5" customFormat="1">
       <c r="B33" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:2" s="5" customFormat="1">
       <c r="B34" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:2" s="5" customFormat="1">
       <c r="B37" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:2" s="5" customFormat="1">
       <c r="B40" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:2" s="5" customFormat="1">
       <c r="B41" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="5" customFormat="1">
       <c r="B43" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:2" s="5" customFormat="1">
       <c r="B46" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="2:2" s="5" customFormat="1">
       <c r="B47" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:2" s="5" customFormat="1">
       <c r="B50" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:2" s="5" customFormat="1">
       <c r="B51" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="2:2" s="5" customFormat="1">
       <c r="B52" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="2:2" s="5" customFormat="1">
       <c r="B53" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="2:2" s="5" customFormat="1">
       <c r="B54" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="2:2" s="5" customFormat="1">
       <c r="B55" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:2" s="5" customFormat="1">
       <c r="B56" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="2:2" s="5" customFormat="1">
       <c r="B57" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:2" s="5" customFormat="1">
       <c r="B58" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="2:2" s="5" customFormat="1">
       <c r="B62" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="2:2" s="5" customFormat="1">
       <c r="B64" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="2:2" s="5" customFormat="1">
       <c r="B65" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="2:2" s="5" customFormat="1">
       <c r="B67" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:2" s="5" customFormat="1">
       <c r="B68" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="2:2" s="5" customFormat="1">
       <c r="B69" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="2:2" s="5" customFormat="1">
       <c r="B70" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="2:2" s="5" customFormat="1">
       <c r="B71" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="2:2" s="5" customFormat="1">
       <c r="B72" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="2:2" s="5" customFormat="1">
       <c r="B73" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="2:2" s="5" customFormat="1">
       <c r="B74" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="2:2" s="5" customFormat="1">
       <c r="B75" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="2:2" s="5" customFormat="1">
       <c r="B76" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="2:2" s="5" customFormat="1">
       <c r="B78" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="2:2" s="5" customFormat="1">
       <c r="B80" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="2:2" s="5" customFormat="1">
       <c r="B81" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="2:2" s="5" customFormat="1">
       <c r="B82" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="2:2" s="5" customFormat="1">
       <c r="B83" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="2:2" s="5" customFormat="1">
       <c r="B84" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="2:2" s="5" customFormat="1">
       <c r="B85" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="2:2" s="5" customFormat="1">
       <c r="B86" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="2:2" s="5" customFormat="1">
       <c r="B87" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="2:2" s="5" customFormat="1">
       <c r="B88" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="2:2" s="5" customFormat="1">
       <c r="B97" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="2:2" s="5" customFormat="1">
       <c r="B101" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="2:2" s="5" customFormat="1">
       <c r="B102" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="2:2" s="5" customFormat="1">
       <c r="B104" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="2:2" s="5" customFormat="1">
       <c r="B105" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="2:2" s="5" customFormat="1">
       <c r="B106" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="2:2" s="5" customFormat="1">
       <c r="B107" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="2:2" s="5" customFormat="1">
       <c r="B108" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="2:2" s="5" customFormat="1">
       <c r="B109" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="2:2" s="5" customFormat="1">
       <c r="B110" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="2:2" s="5" customFormat="1">
       <c r="B111" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
